--- a/Model_Parameters.xlsx
+++ b/Model_Parameters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alexey\GPVI_Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alexey\anjumso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C217B383-8605-4339-AADB-919D48769E0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93FE03C-2BDF-4AC4-9721-4345F93D6F69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="130">
   <si>
     <t>Parname</t>
   </si>
@@ -79,27 +79,15 @@
     <t>kcat_SFK</t>
   </si>
   <si>
-    <t>KM_SFK</t>
-  </si>
-  <si>
     <t>kr_P</t>
   </si>
   <si>
     <t>kcat_CD148</t>
   </si>
   <si>
-    <t>KM_CD148</t>
-  </si>
-  <si>
     <t>kf_Syk</t>
   </si>
   <si>
-    <t>kf_TULA2</t>
-  </si>
-  <si>
-    <t>kr_TULA2</t>
-  </si>
-  <si>
     <t>GPVI</t>
   </si>
   <si>
@@ -148,21 +136,12 @@
     <t>TULA2</t>
   </si>
   <si>
-    <t>kf_CD148</t>
-  </si>
-  <si>
-    <t>kr_CD148</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
     <t>V</t>
   </si>
   <si>
-    <t>kf_TULASyk</t>
-  </si>
-  <si>
     <t>kr_Syk</t>
   </si>
   <si>
@@ -178,27 +157,12 @@
     <t>Monomer_Size</t>
   </si>
   <si>
-    <t>nm</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>amount of phospho CD148</t>
-  </si>
-  <si>
-    <t>CRP conc</t>
-  </si>
-  <si>
     <t>kcat_Syk</t>
   </si>
   <si>
     <t>KM_Syk</t>
   </si>
   <si>
-    <t>V_SykKM</t>
-  </si>
-  <si>
     <t>Kr_LAT</t>
   </si>
   <si>
@@ -208,9 +172,6 @@
     <t>LAT_p</t>
   </si>
   <si>
-    <t>JM_Vol</t>
-  </si>
-  <si>
     <t>KD_Syk</t>
   </si>
   <si>
@@ -271,12 +232,6 @@
     <t>V_DTS</t>
   </si>
   <si>
-    <t>k_IP3K</t>
-  </si>
-  <si>
-    <t>KM_IP3K</t>
-  </si>
-  <si>
     <t>kcat_PLCg2</t>
   </si>
   <si>
@@ -349,14 +304,128 @@
     <t>IP3R_General</t>
   </si>
   <si>
-    <t>tmp, actual: 0,16</t>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Parameters for the GPVI clustering module, fitted to the data from Poulter et. al. JTH 2017</t>
+  </si>
+  <si>
+    <t>Kf of GPVI and Ligand association</t>
+  </si>
+  <si>
+    <t>Kr of GPVI and Ligand association</t>
+  </si>
+  <si>
+    <t>Ratio of V/S</t>
+  </si>
+  <si>
+    <t>Area of the platelet plasma membrane</t>
+  </si>
+  <si>
+    <t>Volume of the platelet</t>
+  </si>
+  <si>
+    <t>Avogadro constant for calculation of molecule number to umoles</t>
+  </si>
+  <si>
+    <t>SFK turnover rate</t>
+  </si>
+  <si>
+    <t>CD148 turnover rate</t>
+  </si>
+  <si>
+    <t>Syk turnover rate</t>
+  </si>
+  <si>
+    <t>Reverse rate of GPVI phosphorylation</t>
+  </si>
+  <si>
+    <t>Syk and GPVI association rate</t>
+  </si>
+  <si>
+    <t>Syk and GPVI dissocidation rate</t>
+  </si>
+  <si>
+    <t>CRP concentration</t>
+  </si>
+  <si>
+    <t>Syk Michaelis constant</t>
+  </si>
+  <si>
+    <t>Amount of activated CD148 phosphatases</t>
+  </si>
+  <si>
+    <t>Average area of GPVI-SFK-FcGamma complex on the plasma membrane</t>
+  </si>
+  <si>
+    <t>Number of CD148 per platelet</t>
+  </si>
+  <si>
+    <t>LAT phosphorylation reverse rate</t>
+  </si>
+  <si>
+    <t>KD of Syk association with GPVI</t>
+  </si>
+  <si>
+    <t>KD of PLCg2 and LATp</t>
+  </si>
+  <si>
+    <t>KD of PI3K and LATp</t>
+  </si>
+  <si>
+    <t>Turnover rate of PI3K</t>
+  </si>
+  <si>
+    <t>Turnover rate of Btk</t>
+  </si>
+  <si>
+    <t>Michaelis Constant of PI3K</t>
+  </si>
+  <si>
+    <t>Michaelis Constant of Btk</t>
+  </si>
+  <si>
+    <t>Reverse rate of PIP3 phosphorylation by PI3K</t>
+  </si>
+  <si>
+    <t>PI3K number</t>
+  </si>
+  <si>
+    <t>KD of Btk and PIP3</t>
+  </si>
+  <si>
+    <t>Reverse rate of PLCg2 acivation</t>
+  </si>
+  <si>
+    <t>Btk number</t>
+  </si>
+  <si>
+    <t>DTS Membrane "Volume"</t>
+  </si>
+  <si>
+    <t>DTS Volume</t>
+  </si>
+  <si>
+    <t>turnover rate of PLCg2</t>
+  </si>
+  <si>
+    <t>Michaelis constant of PLCg2</t>
+  </si>
+  <si>
+    <t>Simplified IP3 turnover</t>
+  </si>
+  <si>
+    <t>Forward rate of Calcium buffering</t>
+  </si>
+  <si>
+    <t>Reverse rate of Calcium buffering</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -365,24 +434,12 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF6897BB"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFC9211E"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -428,25 +485,23 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -832,7 +887,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -843,183 +898,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="8" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="9">
         <v>767354.79520000005</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="10">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="8">
         <v>24957.68492</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="8">
         <v>953161.89910000004</v>
       </c>
-      <c r="F2" s="1">
-        <v>767354.79520000005</v>
+      <c r="F2" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="10">
         <v>619.23848139999996</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <v>155.98945370000001</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="8">
         <v>839.58068600000001</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="8">
         <v>5167.5595169999997</v>
       </c>
-      <c r="F3" s="2">
-        <v>619.23848139999996</v>
+      <c r="F3" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>7.3138774379999999E-3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <v>0.20745076339999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="8">
         <v>0.24447398179999999</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="8">
         <v>2.1793286530000001E-2</v>
       </c>
-      <c r="F4">
-        <v>7.3138774379999999E-3</v>
+      <c r="F4" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="9">
         <v>1.994524857</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="10">
         <v>0.74092501860000004</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="8">
         <v>0.87203168149999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="8">
         <v>1.4738563899999999</v>
       </c>
-      <c r="F5" s="1">
-        <v>1.994524857</v>
+      <c r="F5" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <v>6892.0877700000001</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="10">
         <v>133113.86790000001</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="8">
         <v>244457.9094</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="8">
         <v>13055.80594</v>
       </c>
-      <c r="F6">
-        <v>6892.0877700000001</v>
+      <c r="F6" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <v>1.5E-3</v>
       </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="8">
         <v>0.1</v>
       </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="8">
         <f>70000/4.8</f>
         <v>14583.333333333334</v>
       </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="A10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="10">
         <v>7.0000000000000004E-11</v>
       </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="A11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="10">
         <v>4.7999999999999999E-15</v>
       </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="A12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="10">
         <v>6.02E+17</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -1030,250 +1124,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
         <v>2.1</v>
       </c>
+      <c r="C2" s="8" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
-        <v>3</v>
+      <c r="B3" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.1</v>
+      <c r="B4" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
-        <v>9.6999999999999993</v>
+      <c r="B5" s="8">
+        <v>68</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>9100</v>
+      <c r="A6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="8">
+        <v>80</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
+      <c r="A7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="11">
+        <v>100</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="8">
+        <v>11.85</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="8">
+        <v>9.1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="8">
+        <v>6.38</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="8">
+        <v>3600</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="5">
-        <v>100</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12">
-        <v>11.85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13">
-        <v>9.1</v>
+      <c r="B13" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
-        <v>0.1</v>
+      <c r="A14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18">
-        <v>6.38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19">
-        <v>3600</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="2">
-        <v>4.7999999999999999E-15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>50</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="2">
-        <v>5.0000000000000002E-5</v>
-      </c>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="2">
-        <v>7.0000000000000004E-11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2">
-        <v>6.0199999999999997E-17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="2">
-        <v>9.9999999999999998E-17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2">
-        <f>4900*B24/B23</f>
-        <v>4.213999999999999E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="4"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="4"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="4"/>
+      <c r="A22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1283,111 +1306,145 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BE1DD2-A64F-4A0E-A89F-5EDA701E51C8}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" style="8" customWidth="1"/>
+    <col min="2" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:3">
+      <c r="A2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="8">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3">
+      <c r="C2" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="8">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4">
+      <c r="C3" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="8">
         <v>2.8232698260000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5">
+      <c r="C4" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="8">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="C5" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="11">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
+      <c r="C6" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1900</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="8">
+        <v>37</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B7">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>11100</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1398,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BD2B2B-8F87-46B1-8F65-9604D3DE87AA}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1416,77 +1473,79 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="2">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1">
         <v>1.0000000000000001E-15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="2">
+        <v>66</v>
+      </c>
+      <c r="B3" s="1">
         <v>1.4999999999999999E-15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B4">
-        <v>0.11651453959999999</v>
+        <v>0.16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B5">
-        <v>10.554035239999999</v>
+        <v>5.6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B6">
-        <v>0.16</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B7">
-        <v>5.6</v>
+        <v>0.1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10">
         <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1498,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -1517,78 +1576,75 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1.18E-4</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6">
+        <v>7.0000000000000004E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5">
+        <v>6.02E+23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="9">
-        <v>1.18E-4</v>
-      </c>
-      <c r="D2" s="2">
-        <f>(5000/(B18*B5))*10^6</f>
-        <v>1.1865211200759373E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="10">
-        <v>7.0000000000000004E-11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="8" t="s">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="9">
-        <v>6.02E+23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="B9" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="9">
+      <c r="B10" s="5">
         <f>C10-B9</f>
         <v>16680</v>
       </c>
@@ -1597,26 +1653,26 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="9">
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5">
         <v>5000</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="9">
+      <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="9">
+      <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="5">
         <f>C13-B12</f>
         <v>3600</v>
       </c>
@@ -1625,290 +1681,284 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="5">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="8" t="s">
+      <c r="B18" s="6">
+        <v>7.0000000000000004E-11</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="9">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="10">
-        <v>7.0000000000000004E-11</v>
-      </c>
-      <c r="E18" s="2">
-        <f>B18/B19</f>
-        <v>14583.333333333334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="10">
+      <c r="B19" s="6">
         <v>4.7999999999999999E-15</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="5">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="9">
-        <v>4900</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="11">
+      <c r="B22" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="11">
+      <c r="A23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="7">
         <v>2000</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="11">
+      <c r="A24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="7">
         <v>1900</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="11">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>200</v>
+      <c r="A25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="11">
+      <c r="A26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="10">
+      <c r="A27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="6">
         <f>200*602000000000000000*B19</f>
         <v>577920</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="11">
+      <c r="A28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="7">
+        <v>194.52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4.2559999999999999E-8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="7">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="8" t="s">
+      <c r="B34" s="7">
+        <v>0.63360000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.89759999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.10896</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="7">
+        <v>3.3599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="7">
+        <v>3.3600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="7">
+        <v>3.8399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0.27360000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="11">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="8" t="s">
+      <c r="B45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="11">
-        <v>194.52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="8" t="s">
+      <c r="B46" s="7">
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="2">
-        <v>4.2559999999999999E-8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="8" t="s">
+      <c r="B47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="11">
-        <v>26.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="11">
-        <v>0.63360000000000005</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="11">
-        <v>0.89759999999999995</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="11">
-        <v>0.14599999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" s="11">
-        <v>0.10896</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="11">
-        <v>3.3599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="11">
-        <v>3.3600000000000001E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B40" s="11">
-        <v>0.34399999999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B41" s="11">
-        <v>3.8399999999999997E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" s="11">
-        <v>0.27360000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B45" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B46" s="11">
-        <v>9.5999999999999992E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B48" s="11">
+      <c r="B48" s="7">
         <v>1.2</v>
       </c>
     </row>

--- a/Model_Parameters.xlsx
+++ b/Model_Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alexey\anjumso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93FE03C-2BDF-4AC4-9721-4345F93D6F69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5CA13D-26EC-41B3-8D54-FA7DAA2339AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clustering" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="LAT_Pars" sheetId="4" r:id="rId3"/>
     <sheet name="CalciumModule" sheetId="5" r:id="rId4"/>
     <sheet name="InitialConcentrations" sheetId="3" r:id="rId5"/>
+    <sheet name="PAR1" sheetId="7" r:id="rId6"/>
+    <sheet name="InitPAR1" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="221">
   <si>
     <t>Parname</t>
   </si>
@@ -419,6 +421,279 @@
   </si>
   <si>
     <t>Reverse rate of Calcium buffering</t>
+  </si>
+  <si>
+    <t>par1</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>sfllrn</t>
+  </si>
+  <si>
+    <t>par1_a</t>
+  </si>
+  <si>
+    <t>gqgtp</t>
+  </si>
+  <si>
+    <t>gqgdp</t>
+  </si>
+  <si>
+    <t>plcgqgtp</t>
+  </si>
+  <si>
+    <t>plcgqgdp</t>
+  </si>
+  <si>
+    <t>par1_gq</t>
+  </si>
+  <si>
+    <t>gtp</t>
+  </si>
+  <si>
+    <t>par1_gqgtpgdp</t>
+  </si>
+  <si>
+    <t>gdp</t>
+  </si>
+  <si>
+    <t>par1_gqgdp</t>
+  </si>
+  <si>
+    <t>plcgqgtppip2</t>
+  </si>
+  <si>
+    <t>plc</t>
+  </si>
+  <si>
+    <t>pip2</t>
+  </si>
+  <si>
+    <t>ca_ex</t>
+  </si>
+  <si>
+    <t>ip3r</t>
+  </si>
+  <si>
+    <t>orai1_closed</t>
+  </si>
+  <si>
+    <t>orai1_opened</t>
+  </si>
+  <si>
+    <t>stim1</t>
+  </si>
+  <si>
+    <t>stim1ca</t>
+  </si>
+  <si>
+    <t>ca_mit</t>
+  </si>
+  <si>
+    <t>phi</t>
+  </si>
+  <si>
+    <t>mptp_opened</t>
+  </si>
+  <si>
+    <t>mptp_closed</t>
+  </si>
+  <si>
+    <t>k4</t>
+  </si>
+  <si>
+    <t>k5</t>
+  </si>
+  <si>
+    <t>k6</t>
+  </si>
+  <si>
+    <t>k7</t>
+  </si>
+  <si>
+    <t>k8</t>
+  </si>
+  <si>
+    <t>k9</t>
+  </si>
+  <si>
+    <t>k10</t>
+  </si>
+  <si>
+    <t>k11</t>
+  </si>
+  <si>
+    <t>k12</t>
+  </si>
+  <si>
+    <t>km_1</t>
+  </si>
+  <si>
+    <t>km_2</t>
+  </si>
+  <si>
+    <t>km_3</t>
+  </si>
+  <si>
+    <t>km_4</t>
+  </si>
+  <si>
+    <t>km_5</t>
+  </si>
+  <si>
+    <t>km_6</t>
+  </si>
+  <si>
+    <t>km_7</t>
+  </si>
+  <si>
+    <t>km_8</t>
+  </si>
+  <si>
+    <t>km_9</t>
+  </si>
+  <si>
+    <t>km_10</t>
+  </si>
+  <si>
+    <t>km_11</t>
+  </si>
+  <si>
+    <t>gamma_1</t>
+  </si>
+  <si>
+    <t>gamma_2</t>
+  </si>
+  <si>
+    <t>gamma_3</t>
+  </si>
+  <si>
+    <t>gamma_4</t>
+  </si>
+  <si>
+    <t>gamma_5</t>
+  </si>
+  <si>
+    <t>gamma_6</t>
+  </si>
+  <si>
+    <t>gamma_7</t>
+  </si>
+  <si>
+    <t>gamma_8</t>
+  </si>
+  <si>
+    <t>gamma_9</t>
+  </si>
+  <si>
+    <t>gamma_10</t>
+  </si>
+  <si>
+    <t>gamma_11</t>
+  </si>
+  <si>
+    <t>V_1</t>
+  </si>
+  <si>
+    <t>V_2</t>
+  </si>
+  <si>
+    <t>K_1</t>
+  </si>
+  <si>
+    <t>K_2</t>
+  </si>
+  <si>
+    <t>K_3</t>
+  </si>
+  <si>
+    <t>k_3</t>
+  </si>
+  <si>
+    <t>k_4</t>
+  </si>
+  <si>
+    <t>k_5</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>K7</t>
+  </si>
+  <si>
+    <t>K8</t>
+  </si>
+  <si>
+    <t>km2</t>
+  </si>
+  <si>
+    <t>km3</t>
+  </si>
+  <si>
+    <t>km4</t>
+  </si>
+  <si>
+    <t>kc3</t>
+  </si>
+  <si>
+    <t>k_12</t>
+  </si>
+  <si>
+    <t>k_13</t>
+  </si>
+  <si>
+    <t>phi_a1</t>
+  </si>
+  <si>
+    <t>phi_a2</t>
+  </si>
+  <si>
+    <t>phi_a3</t>
+  </si>
+  <si>
+    <t>phi_a4</t>
+  </si>
+  <si>
+    <t>phi_m</t>
+  </si>
+  <si>
+    <t>phi_m2</t>
+  </si>
+  <si>
+    <t>phi_m3</t>
+  </si>
+  <si>
+    <t>jres</t>
+  </si>
+  <si>
+    <t>k_thr</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -887,7 +1162,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -1113,7 +1388,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -1309,7 +1584,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1455,15 +1730,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BD2B2B-8F87-46B1-8F65-9604D3DE87AA}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1471,7 +1746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1482,7 +1757,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1493,7 +1768,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -1503,8 +1778,11 @@
       <c r="C4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1515,7 +1793,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -1526,18 +1804,18 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>71</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="C7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -1557,8 +1835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -1579,7 +1857,10 @@
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
+        <v>5000</v>
+      </c>
+      <c r="C2" s="6">
         <v>1.18E-4</v>
       </c>
       <c r="D2" s="1"/>
@@ -1966,4 +2247,819 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2972C9-1B86-49F1-91CE-527F0C1D5946}">
+  <dimension ref="A1:B71"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1.8E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24">
+        <v>2.5350000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31">
+        <v>8.8499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33">
+        <v>1.73E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34">
+        <v>0.39700000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>191</v>
+      </c>
+      <c r="B40">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>194</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>195</v>
+      </c>
+      <c r="B46">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>196</v>
+      </c>
+      <c r="B47">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>197</v>
+      </c>
+      <c r="B48">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>198</v>
+      </c>
+      <c r="B49">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>199</v>
+      </c>
+      <c r="B50">
+        <v>4707</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>200</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>201</v>
+      </c>
+      <c r="B52">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>204</v>
+      </c>
+      <c r="B55">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>206</v>
+      </c>
+      <c r="B57">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>207</v>
+      </c>
+      <c r="B58">
+        <v>1.266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>208</v>
+      </c>
+      <c r="B59">
+        <v>667000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>209</v>
+      </c>
+      <c r="B60">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>210</v>
+      </c>
+      <c r="B61">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>211</v>
+      </c>
+      <c r="B62">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>212</v>
+      </c>
+      <c r="B63">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>213</v>
+      </c>
+      <c r="B64">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>214</v>
+      </c>
+      <c r="B65">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>215</v>
+      </c>
+      <c r="B66">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>216</v>
+      </c>
+      <c r="B67">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>217</v>
+      </c>
+      <c r="B68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>218</v>
+      </c>
+      <c r="B69" s="1">
+        <v>8.3099999999999997E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>219</v>
+      </c>
+      <c r="B70">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>220</v>
+      </c>
+      <c r="B71">
+        <v>96.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5829A873-6480-4FF2-9496-6583C6574425}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7">
+        <v>4.3E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Model_Parameters.xlsx
+++ b/Model_Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alexey\anjumso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5CA13D-26EC-41B3-8D54-FA7DAA2339AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837F587B-F0B5-4577-B2E9-6F3236DB8334}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clustering" sheetId="1" r:id="rId1"/>
@@ -700,13 +700,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -758,25 +766,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1388,7 +1401,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -1423,7 +1436,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="10">
-        <v>0.1</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>102</v>
@@ -1441,11 +1454,11 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="8">
-        <v>68</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>103</v>
@@ -1456,7 +1469,7 @@
         <v>37</v>
       </c>
       <c r="B6" s="8">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>104</v>
@@ -1511,7 +1524,7 @@
         <v>41</v>
       </c>
       <c r="B11" s="8">
-        <v>6.38</v>
+        <v>3.3</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>108</v>
@@ -1584,7 +1597,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1646,11 +1659,11 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="11">
-        <v>1.6</v>
+      <c r="B6" s="13">
+        <v>6</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>118</v>
@@ -1701,11 +1714,11 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B11" s="8">
-        <v>0.09</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>121</v>
@@ -1732,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BD2B2B-8F87-46B1-8F65-9604D3DE87AA}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1798,7 +1811,7 @@
         <v>69</v>
       </c>
       <c r="B6">
-        <v>7.4999999999999997E-3</v>
+        <v>4.2</v>
       </c>
       <c r="C6" t="s">
         <v>127</v>
@@ -1835,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -2071,8 +2084,20 @@
         <v>52</v>
       </c>
       <c r="B27" s="6">
-        <f>200*602000000000000000*B19</f>
-        <v>577920</v>
+        <f>200*0.00000006*602000000000000000</f>
+        <v>7223999999999.999</v>
+      </c>
+      <c r="C27" s="1">
+        <f>B27/(602000000000000000 * 0.00000006)</f>
+        <v>199.99999999999997</v>
+      </c>
+      <c r="D27" s="1">
+        <f>B27/(602000000000000000 *0.00000000007)</f>
+        <v>171428.57142857139</v>
+      </c>
+      <c r="E27" s="1">
+        <f>B27/(602000000000000000*0.00000000007)</f>
+        <v>171428.57142857139</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2232,7 +2257,7 @@
         <v>89</v>
       </c>
       <c r="B47" s="7">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2253,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2972C9-1B86-49F1-91CE-527F0C1D5946}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2834,13 +2859,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5829A873-6480-4FF2-9496-6583C6574425}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -2970,15 +2998,19 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>145</v>
       </c>
       <c r="B17">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="D17">
+        <f>(B17*60*0.00000001)/0.00000000007</f>
+        <v>1714285.7142857143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>146</v>
       </c>
@@ -2986,7 +3018,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>147</v>
       </c>
@@ -2994,7 +3026,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>148</v>
       </c>
@@ -3002,7 +3034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>149</v>
       </c>
@@ -3010,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>150</v>
       </c>
@@ -3018,7 +3050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -3026,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>152</v>
       </c>
@@ -3034,7 +3066,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>153</v>
       </c>
@@ -3042,7 +3074,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>154</v>
       </c>
@@ -3050,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>155</v>
       </c>

--- a/Model_Parameters.xlsx
+++ b/Model_Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alexey\anjumso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837F587B-F0B5-4577-B2E9-6F3236DB8334}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44967BE8-FF6E-4616-974D-D828E74A5C57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clustering" sheetId="1" r:id="rId1"/>
@@ -1746,7 +1746,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1848,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -2145,7 +2145,7 @@
         <v>75</v>
       </c>
       <c r="B33" s="7">
-        <v>26.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2278,7 +2278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2972C9-1B86-49F1-91CE-527F0C1D5946}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>

--- a/Model_Parameters.xlsx
+++ b/Model_Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alexey\anjumso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44967BE8-FF6E-4616-974D-D828E74A5C57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78B0D85-4B2B-45A9-9433-F1CE3383DE9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clustering" sheetId="1" r:id="rId1"/>
@@ -1745,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BD2B2B-8F87-46B1-8F65-9604D3DE87AA}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1822,7 +1822,7 @@
         <v>71</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="C7" t="s">
         <v>128</v>
@@ -1848,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -2129,7 +2129,7 @@
         <v>73</v>
       </c>
       <c r="B31" s="7">
-        <v>194.52</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2278,7 +2278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2972C9-1B86-49F1-91CE-527F0C1D5946}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -2861,8 +2861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5829A873-6480-4FF2-9496-6583C6574425}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Model_Parameters.xlsx
+++ b/Model_Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alexey\anjumso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78B0D85-4B2B-45A9-9433-F1CE3383DE9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235E1091-A51F-45D3-ACE8-10B7FAA59F2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clustering" sheetId="1" r:id="rId1"/>
@@ -1745,7 +1745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BD2B2B-8F87-46B1-8F65-9604D3DE87AA}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1848,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -2145,7 +2145,7 @@
         <v>75</v>
       </c>
       <c r="B33" s="7">
-        <v>0</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2861,8 +2861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5829A873-6480-4FF2-9496-6583C6574425}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Model_Parameters.xlsx
+++ b/Model_Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alexey\anjumso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235E1091-A51F-45D3-ACE8-10B7FAA59F2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E58C22-70BE-44CB-99F9-42BDE910E5F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clustering" sheetId="1" r:id="rId1"/>
@@ -1597,7 +1597,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1848,7 +1848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -2278,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2972C9-1B86-49F1-91CE-527F0C1D5946}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Model_Parameters.xlsx
+++ b/Model_Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alexey\anjumso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E58C22-70BE-44CB-99F9-42BDE910E5F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792B60D8-8E25-4C58-9A83-64FB226A95AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clustering" sheetId="1" r:id="rId1"/>
@@ -2278,7 +2278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2972C9-1B86-49F1-91CE-527F0C1D5946}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
@@ -2861,8 +2861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5829A873-6480-4FF2-9496-6583C6574425}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
